--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Malaysia_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Malaysia_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G474"/>
+  <dimension ref="A1:G477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12301,6 +12301,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="475">
+      <c r="A475" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MYM2</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>2283769120000</v>
+      </c>
+      <c r="D475" t="n">
+        <v>2283769120000</v>
+      </c>
+      <c r="E475" t="n">
+        <v>2283769120000</v>
+      </c>
+      <c r="F475" t="n">
+        <v>2283769120000</v>
+      </c>
+      <c r="G475" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MYM2</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>2278789260000</v>
+      </c>
+      <c r="D476" t="n">
+        <v>2278789260000</v>
+      </c>
+      <c r="E476" t="n">
+        <v>2278789260000</v>
+      </c>
+      <c r="F476" t="n">
+        <v>2278789260000</v>
+      </c>
+      <c r="G476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MYM2</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>2288145090000</v>
+      </c>
+      <c r="D477" t="n">
+        <v>2288145090000</v>
+      </c>
+      <c r="E477" t="n">
+        <v>2288145090000</v>
+      </c>
+      <c r="F477" t="n">
+        <v>2288145090000</v>
+      </c>
+      <c r="G477" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Malaysia_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Malaysia_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G477"/>
+  <dimension ref="A1:G478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>25903.41666666667</v>
+        <v>25903.45833333333</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>31138.41666666667</v>
+        <v>31138.45833333333</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>31503.41666666667</v>
+        <v>31503.45833333333</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31868.41666666667</v>
+        <v>31868.45833333333</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>32234.41666666667</v>
+        <v>32234.45833333333</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>32599.41666666667</v>
+        <v>32599.45833333333</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32782.41666666666</v>
+        <v>32782.45833333334</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>33329.41666666666</v>
+        <v>33329.45833333334</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>33664.41666666666</v>
+        <v>33664.45833333334</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>33695.41666666666</v>
+        <v>33695.45833333334</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>34060.41666666666</v>
+        <v>34060.45833333334</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>34425.41666666666</v>
+        <v>34425.45833333334</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34790.41666666666</v>
+        <v>34790.45833333334</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34973.41666666666</v>
+        <v>34973.45833333334</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -12311,16 +12311,16 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>2283769120000</v>
+        <v>2283769117000</v>
       </c>
       <c r="D475" t="n">
-        <v>2283769120000</v>
+        <v>2283769117000</v>
       </c>
       <c r="E475" t="n">
-        <v>2283769120000</v>
+        <v>2283769117000</v>
       </c>
       <c r="F475" t="n">
-        <v>2283769120000</v>
+        <v>2283769117000</v>
       </c>
       <c r="G475" t="n">
         <v>0</v>
@@ -12336,16 +12336,16 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>2278789260000</v>
+        <v>2278789256000</v>
       </c>
       <c r="D476" t="n">
-        <v>2278789260000</v>
+        <v>2278789256000</v>
       </c>
       <c r="E476" t="n">
-        <v>2278789260000</v>
+        <v>2278789256000</v>
       </c>
       <c r="F476" t="n">
-        <v>2278789260000</v>
+        <v>2278789256000</v>
       </c>
       <c r="G476" t="n">
         <v>0</v>
@@ -12361,18 +12361,43 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>2288145090000</v>
+        <v>2288145087000</v>
       </c>
       <c r="D477" t="n">
-        <v>2288145090000</v>
+        <v>2288145087000</v>
       </c>
       <c r="E477" t="n">
-        <v>2288145090000</v>
+        <v>2288145087000</v>
       </c>
       <c r="F477" t="n">
-        <v>2288145090000</v>
+        <v>2288145087000</v>
       </c>
       <c r="G477" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MYM2</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>2297528090000</v>
+      </c>
+      <c r="D478" t="n">
+        <v>2297528090000</v>
+      </c>
+      <c r="E478" t="n">
+        <v>2297528090000</v>
+      </c>
+      <c r="F478" t="n">
+        <v>2297528090000</v>
+      </c>
+      <c r="G478" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Malaysia_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Malaysia_M2.xlsx
@@ -478,7 +478,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>25903.45833333333</v>
+        <v>25903.41666666667</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>31138.45833333333</v>
+        <v>31138.41666666667</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>31503.45833333333</v>
+        <v>31503.41666666667</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31868.45833333333</v>
+        <v>31868.41666666667</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>32234.45833333333</v>
+        <v>32234.41666666667</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>32599.45833333333</v>
+        <v>32599.41666666667</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32782.45833333334</v>
+        <v>32782.41666666666</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>33329.45833333334</v>
+        <v>33329.41666666666</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>33664.45833333334</v>
+        <v>33664.41666666666</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>33695.45833333334</v>
+        <v>33695.41666666666</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>34060.45833333334</v>
+        <v>34060.41666666666</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>34425.45833333334</v>
+        <v>34425.41666666666</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34790.45833333334</v>
+        <v>34790.41666666666</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34973.45833333334</v>
+        <v>34973.41666666666</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Malaysia_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Malaysia_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G478"/>
+  <dimension ref="A1:G481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12401,6 +12401,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="479">
+      <c r="A479" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MYM2</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>2291247870000</v>
+      </c>
+      <c r="D479" t="n">
+        <v>2291247870000</v>
+      </c>
+      <c r="E479" t="n">
+        <v>2291247870000</v>
+      </c>
+      <c r="F479" t="n">
+        <v>2291247870000</v>
+      </c>
+      <c r="G479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MYM2</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>2296445880000</v>
+      </c>
+      <c r="D480" t="n">
+        <v>2296445880000</v>
+      </c>
+      <c r="E480" t="n">
+        <v>2296445880000</v>
+      </c>
+      <c r="F480" t="n">
+        <v>2296445880000</v>
+      </c>
+      <c r="G480" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>ECONOMICS:MYM2</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>2310715720000</v>
+      </c>
+      <c r="D481" t="n">
+        <v>2310715720000</v>
+      </c>
+      <c r="E481" t="n">
+        <v>2310715720000</v>
+      </c>
+      <c r="F481" t="n">
+        <v>2310715720000</v>
+      </c>
+      <c r="G481" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Malaysia_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Malaysia_M2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G481"/>
+  <dimension ref="A1:G482"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11455,18 +11455,41 @@
         <v>7</v>
       </c>
       <c r="C481">
-        <v>2310715720000</v>
+        <v>2310706340000</v>
       </c>
       <c r="D481">
-        <v>2310715720000</v>
+        <v>2310706340000</v>
       </c>
       <c r="E481">
-        <v>2310715720000</v>
+        <v>2310706340000</v>
       </c>
       <c r="F481">
-        <v>2310715720000</v>
+        <v>2310706340000</v>
       </c>
       <c r="G481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7">
+      <c r="A482" s="2">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="B482" t="s">
+        <v>7</v>
+      </c>
+      <c r="C482">
+        <v>2330019060000</v>
+      </c>
+      <c r="D482">
+        <v>2330019060000</v>
+      </c>
+      <c r="E482">
+        <v>2330019060000</v>
+      </c>
+      <c r="F482">
+        <v>2330019060000</v>
+      </c>
+      <c r="G482">
         <v>0</v>
       </c>
     </row>
